--- a/Mifos Automation Excels/Loan Product/1349-MS-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-2-ONTIME-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/1349-MS-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-2-ONTIME-Loanproduct.xlsx
@@ -203,7 +203,7 @@
     <t>1349-MS-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-2-ONTIME</t>
   </si>
   <si>
-    <t>Mifos style</t>
+    <t>Penalties, Fees, Interest, Principal order</t>
   </si>
 </sst>
 </file>
@@ -599,7 +599,7 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -740,7 +740,7 @@
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="13" t="s">
         <v>62</v>
       </c>
     </row>
